--- a/RHEL8 STIG UBI8 Applicability Review.xlsx
+++ b/RHEL8 STIG UBI8 Applicability Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rxavier/Documents/SD/inspec_profiles/redhat-enterprise-linux-8-stig-baseline_prs/redhat-enterprise-linux-8-stig-baseline_SD-1742/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D2B7101B-8492-9248-AE05-EAC4106B0EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2D472E2-7546-F74A-A470-CC082CEF4C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5451,11 +5451,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD5B64F-5468-C948-9642-2027F3B4AFF1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B366"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5565,7 +5564,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -5587,7 +5586,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>1140</v>
       </c>
@@ -5635,7 +5634,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -5657,7 +5656,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -5681,7 +5680,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -5703,7 +5702,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="356" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -5725,7 +5724,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
@@ -5747,7 +5746,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>1141</v>
       </c>
@@ -5791,7 +5790,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1143</v>
       </c>
@@ -5813,7 +5812,7 @@
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>1145</v>
       </c>
@@ -5835,7 +5834,7 @@
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="388" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="388" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>1146</v>
       </c>
@@ -5857,7 +5856,7 @@
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>1148</v>
       </c>
@@ -5879,7 +5878,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -5901,7 +5900,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -5923,7 +5922,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -5945,7 +5944,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
@@ -5967,7 +5966,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -5989,7 +5988,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>55</v>
       </c>
@@ -6011,7 +6010,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>1150</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -6059,7 +6058,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>61</v>
       </c>
@@ -6081,7 +6080,7 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>63</v>
       </c>
@@ -6103,7 +6102,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>65</v>
       </c>
@@ -6125,7 +6124,7 @@
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>67</v>
       </c>
@@ -6147,7 +6146,7 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>69</v>
       </c>
@@ -6169,7 +6168,7 @@
       </c>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>1151</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>1154</v>
       </c>
@@ -6453,7 +6452,7 @@
       </c>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" ht="404" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="404" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>95</v>
       </c>
@@ -6519,7 +6518,7 @@
       </c>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>103</v>
       </c>
@@ -6541,7 +6540,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>106</v>
       </c>
@@ -6563,7 +6562,7 @@
       </c>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>109</v>
       </c>
@@ -6585,7 +6584,7 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>112</v>
       </c>
@@ -6607,7 +6606,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>115</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>1156</v>
       </c>
@@ -6703,7 +6702,7 @@
       </c>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>1157</v>
       </c>
@@ -6725,7 +6724,7 @@
       </c>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>127</v>
       </c>
@@ -6747,7 +6746,7 @@
       </c>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
@@ -6769,7 +6768,7 @@
       </c>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>133</v>
       </c>
@@ -6791,7 +6790,7 @@
       </c>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>1158</v>
       </c>
@@ -6813,7 +6812,7 @@
       </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>137</v>
       </c>
@@ -6835,7 +6834,7 @@
       </c>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>140</v>
       </c>
@@ -6879,7 +6878,7 @@
       </c>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>145</v>
       </c>
@@ -6945,7 +6944,7 @@
       </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>153</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>169</v>
       </c>
@@ -7145,7 +7144,7 @@
       </c>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>172</v>
       </c>
@@ -7167,7 +7166,7 @@
       </c>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>174</v>
       </c>
@@ -7189,7 +7188,7 @@
       </c>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>176</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>181</v>
       </c>
@@ -7259,7 +7258,7 @@
       </c>
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>184</v>
       </c>
@@ -7281,7 +7280,7 @@
       </c>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>186</v>
       </c>
@@ -7303,7 +7302,7 @@
       </c>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>1165</v>
       </c>
@@ -7347,7 +7346,7 @@
       </c>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>193</v>
       </c>
@@ -7523,7 +7522,7 @@
       </c>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>214</v>
       </c>
@@ -7545,7 +7544,7 @@
       </c>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>217</v>
       </c>
@@ -7567,7 +7566,7 @@
       </c>
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>220</v>
       </c>
@@ -7589,7 +7588,7 @@
       </c>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>223</v>
       </c>
@@ -7611,7 +7610,7 @@
       </c>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>226</v>
       </c>
@@ -7633,7 +7632,7 @@
       </c>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>228</v>
       </c>
@@ -7919,7 +7918,7 @@
       </c>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>259</v>
       </c>
@@ -7941,7 +7940,7 @@
       </c>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>261</v>
       </c>
@@ -8341,7 +8340,7 @@
       </c>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>290</v>
       </c>
@@ -8363,7 +8362,7 @@
       </c>
       <c r="H128" s="12"/>
     </row>
-    <row r="129" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>1179</v>
       </c>
@@ -8385,7 +8384,7 @@
       </c>
       <c r="H129" s="12"/>
     </row>
-    <row r="130" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>295</v>
       </c>
@@ -8407,7 +8406,7 @@
       </c>
       <c r="H130" s="12"/>
     </row>
-    <row r="131" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>297</v>
       </c>
@@ -8429,7 +8428,7 @@
       </c>
       <c r="H131" s="12"/>
     </row>
-    <row r="132" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>299</v>
       </c>
@@ -8451,7 +8450,7 @@
       </c>
       <c r="H132" s="12"/>
     </row>
-    <row r="133" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>301</v>
       </c>
@@ -8473,7 +8472,7 @@
       </c>
       <c r="H133" s="12"/>
     </row>
-    <row r="134" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>304</v>
       </c>
@@ -8495,7 +8494,7 @@
       </c>
       <c r="H134" s="12"/>
     </row>
-    <row r="135" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
         <v>1180</v>
       </c>
@@ -8893,7 +8892,7 @@
       </c>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
         <v>357</v>
       </c>
@@ -9207,7 +9206,7 @@
       </c>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
         <v>396</v>
       </c>
@@ -9229,7 +9228,7 @@
       </c>
       <c r="H167" s="12"/>
     </row>
-    <row r="168" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
         <v>1184</v>
       </c>
@@ -9251,7 +9250,7 @@
       </c>
       <c r="H168" s="12"/>
     </row>
-    <row r="169" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
         <v>401</v>
       </c>
@@ -9273,7 +9272,7 @@
       </c>
       <c r="H169" s="12"/>
     </row>
-    <row r="170" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
         <v>404</v>
       </c>
@@ -9295,7 +9294,7 @@
       </c>
       <c r="H170" s="12"/>
     </row>
-    <row r="171" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>406</v>
       </c>
@@ -9317,7 +9316,7 @@
       </c>
       <c r="H171" s="12"/>
     </row>
-    <row r="172" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
         <v>1185</v>
       </c>
@@ -9339,7 +9338,7 @@
       </c>
       <c r="H172" s="12"/>
     </row>
-    <row r="173" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>410</v>
       </c>
@@ -9361,7 +9360,7 @@
       </c>
       <c r="H173" s="12"/>
     </row>
-    <row r="174" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
         <v>413</v>
       </c>
@@ -9383,7 +9382,7 @@
       </c>
       <c r="H174" s="12"/>
     </row>
-    <row r="175" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
         <v>416</v>
       </c>
@@ -9405,7 +9404,7 @@
       </c>
       <c r="H175" s="12"/>
     </row>
-    <row r="176" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
         <v>419</v>
       </c>
@@ -9427,7 +9426,7 @@
       </c>
       <c r="H176" s="12"/>
     </row>
-    <row r="177" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>422</v>
       </c>
@@ -9449,7 +9448,7 @@
       </c>
       <c r="H177" s="12"/>
     </row>
-    <row r="178" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>425</v>
       </c>
@@ -9471,7 +9470,7 @@
       </c>
       <c r="H178" s="12"/>
     </row>
-    <row r="179" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
         <v>427</v>
       </c>
@@ -9493,7 +9492,7 @@
       </c>
       <c r="H179" s="12"/>
     </row>
-    <row r="180" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
         <v>430</v>
       </c>
@@ -9515,7 +9514,7 @@
       </c>
       <c r="H180" s="12"/>
     </row>
-    <row r="181" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
         <v>432</v>
       </c>
@@ -9537,7 +9536,7 @@
       </c>
       <c r="H181" s="12"/>
     </row>
-    <row r="182" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
         <v>434</v>
       </c>
@@ -9559,7 +9558,7 @@
       </c>
       <c r="H182" s="12"/>
     </row>
-    <row r="183" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
         <v>437</v>
       </c>
@@ -9581,7 +9580,7 @@
       </c>
       <c r="H183" s="12"/>
     </row>
-    <row r="184" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
         <v>440</v>
       </c>
@@ -9603,7 +9602,7 @@
       </c>
       <c r="H184" s="12"/>
     </row>
-    <row r="185" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
         <v>442</v>
       </c>
@@ -9625,7 +9624,7 @@
       </c>
       <c r="H185" s="12"/>
     </row>
-    <row r="186" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
         <v>445</v>
       </c>
@@ -9647,7 +9646,7 @@
       </c>
       <c r="H186" s="12"/>
     </row>
-    <row r="187" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
         <v>448</v>
       </c>
@@ -9669,7 +9668,7 @@
       </c>
       <c r="H187" s="12"/>
     </row>
-    <row r="188" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
         <v>450</v>
       </c>
@@ -9691,7 +9690,7 @@
       </c>
       <c r="H188" s="12"/>
     </row>
-    <row r="189" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
         <v>452</v>
       </c>
@@ -9713,7 +9712,7 @@
       </c>
       <c r="H189" s="12"/>
     </row>
-    <row r="190" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
         <v>455</v>
       </c>
@@ -9735,7 +9734,7 @@
       </c>
       <c r="H190" s="12"/>
     </row>
-    <row r="191" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
         <v>457</v>
       </c>
@@ -9757,7 +9756,7 @@
       </c>
       <c r="H191" s="12"/>
     </row>
-    <row r="192" spans="1:8" ht="306" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="306" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
         <v>1186</v>
       </c>
@@ -9779,7 +9778,7 @@
       </c>
       <c r="H192" s="12"/>
     </row>
-    <row r="193" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
         <v>461</v>
       </c>
@@ -9801,7 +9800,7 @@
       </c>
       <c r="H193" s="12"/>
     </row>
-    <row r="194" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
         <v>464</v>
       </c>
@@ -9823,7 +9822,7 @@
       </c>
       <c r="H194" s="12"/>
     </row>
-    <row r="195" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
         <v>467</v>
       </c>
@@ -9845,7 +9844,7 @@
       </c>
       <c r="H195" s="12"/>
     </row>
-    <row r="196" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
         <v>470</v>
       </c>
@@ -9867,7 +9866,7 @@
       </c>
       <c r="H196" s="12"/>
     </row>
-    <row r="197" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
         <v>473</v>
       </c>
@@ -9889,7 +9888,7 @@
       </c>
       <c r="H197" s="12"/>
     </row>
-    <row r="198" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
         <v>476</v>
       </c>
@@ -9911,7 +9910,7 @@
       </c>
       <c r="H198" s="12"/>
     </row>
-    <row r="199" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
         <v>479</v>
       </c>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="H199" s="12"/>
     </row>
-    <row r="200" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
         <v>482</v>
       </c>
@@ -9955,7 +9954,7 @@
       </c>
       <c r="H200" s="12"/>
     </row>
-    <row r="201" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
         <v>485</v>
       </c>
@@ -9977,7 +9976,7 @@
       </c>
       <c r="H201" s="12"/>
     </row>
-    <row r="202" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
         <v>488</v>
       </c>
@@ -9999,7 +9998,7 @@
       </c>
       <c r="H202" s="12"/>
     </row>
-    <row r="203" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
         <v>491</v>
       </c>
@@ -10021,7 +10020,7 @@
       </c>
       <c r="H203" s="12"/>
     </row>
-    <row r="204" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
         <v>494</v>
       </c>
@@ -10043,7 +10042,7 @@
       </c>
       <c r="H204" s="12"/>
     </row>
-    <row r="205" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
         <v>497</v>
       </c>
@@ -10065,7 +10064,7 @@
       </c>
       <c r="H205" s="12"/>
     </row>
-    <row r="206" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
         <v>500</v>
       </c>
@@ -10087,7 +10086,7 @@
       </c>
       <c r="H206" s="12"/>
     </row>
-    <row r="207" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
         <v>503</v>
       </c>
@@ -10109,7 +10108,7 @@
       </c>
       <c r="H207" s="12"/>
     </row>
-    <row r="208" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
         <v>506</v>
       </c>
@@ -10131,7 +10130,7 @@
       </c>
       <c r="H208" s="12"/>
     </row>
-    <row r="209" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
         <v>509</v>
       </c>
@@ -10153,7 +10152,7 @@
       </c>
       <c r="H209" s="12"/>
     </row>
-    <row r="210" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
         <v>512</v>
       </c>
@@ -10175,7 +10174,7 @@
       </c>
       <c r="H210" s="12"/>
     </row>
-    <row r="211" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
         <v>515</v>
       </c>
@@ -10197,7 +10196,7 @@
       </c>
       <c r="H211" s="12"/>
     </row>
-    <row r="212" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
         <v>518</v>
       </c>
@@ -10219,7 +10218,7 @@
       </c>
       <c r="H212" s="12"/>
     </row>
-    <row r="213" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
         <v>521</v>
       </c>
@@ -10241,7 +10240,7 @@
       </c>
       <c r="H213" s="12"/>
     </row>
-    <row r="214" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
         <v>524</v>
       </c>
@@ -10263,7 +10262,7 @@
       </c>
       <c r="H214" s="12"/>
     </row>
-    <row r="215" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
         <v>1188</v>
       </c>
@@ -10285,7 +10284,7 @@
       </c>
       <c r="H215" s="12"/>
     </row>
-    <row r="216" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
         <v>529</v>
       </c>
@@ -10307,7 +10306,7 @@
       </c>
       <c r="H216" s="12"/>
     </row>
-    <row r="217" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
         <v>532</v>
       </c>
@@ -10329,7 +10328,7 @@
       </c>
       <c r="H217" s="12"/>
     </row>
-    <row r="218" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
         <v>535</v>
       </c>
@@ -10351,7 +10350,7 @@
       </c>
       <c r="H218" s="12"/>
     </row>
-    <row r="219" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
         <v>538</v>
       </c>
@@ -10373,7 +10372,7 @@
       </c>
       <c r="H219" s="12"/>
     </row>
-    <row r="220" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
         <v>541</v>
       </c>
@@ -10395,7 +10394,7 @@
       </c>
       <c r="H220" s="12"/>
     </row>
-    <row r="221" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
         <v>544</v>
       </c>
@@ -10417,7 +10416,7 @@
       </c>
       <c r="H221" s="12"/>
     </row>
-    <row r="222" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
         <v>547</v>
       </c>
@@ -10439,7 +10438,7 @@
       </c>
       <c r="H222" s="12"/>
     </row>
-    <row r="223" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
         <v>550</v>
       </c>
@@ -10461,7 +10460,7 @@
       </c>
       <c r="H223" s="12"/>
     </row>
-    <row r="224" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
         <v>553</v>
       </c>
@@ -10483,7 +10482,7 @@
       </c>
       <c r="H224" s="12"/>
     </row>
-    <row r="225" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
         <v>556</v>
       </c>
@@ -10505,7 +10504,7 @@
       </c>
       <c r="H225" s="12"/>
     </row>
-    <row r="226" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
         <v>559</v>
       </c>
@@ -10527,7 +10526,7 @@
       </c>
       <c r="H226" s="12"/>
     </row>
-    <row r="227" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
         <v>562</v>
       </c>
@@ -10549,7 +10548,7 @@
       </c>
       <c r="H227" s="12"/>
     </row>
-    <row r="228" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
         <v>565</v>
       </c>
@@ -10571,7 +10570,7 @@
       </c>
       <c r="H228" s="12"/>
     </row>
-    <row r="229" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A229" s="12" t="s">
         <v>568</v>
       </c>
@@ -10593,7 +10592,7 @@
       </c>
       <c r="H229" s="12"/>
     </row>
-    <row r="230" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
         <v>571</v>
       </c>
@@ -10615,7 +10614,7 @@
       </c>
       <c r="H230" s="12"/>
     </row>
-    <row r="231" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A231" s="12" t="s">
         <v>574</v>
       </c>
@@ -10637,7 +10636,7 @@
       </c>
       <c r="H231" s="12"/>
     </row>
-    <row r="232" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
         <v>577</v>
       </c>
@@ -10659,7 +10658,7 @@
       </c>
       <c r="H232" s="12"/>
     </row>
-    <row r="233" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
         <v>580</v>
       </c>
@@ -10681,7 +10680,7 @@
       </c>
       <c r="H233" s="12"/>
     </row>
-    <row r="234" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
         <v>583</v>
       </c>
@@ -10703,7 +10702,7 @@
       </c>
       <c r="H234" s="12"/>
     </row>
-    <row r="235" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A235" s="12" t="s">
         <v>586</v>
       </c>
@@ -10725,7 +10724,7 @@
       </c>
       <c r="H235" s="12"/>
     </row>
-    <row r="236" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A236" s="12" t="s">
         <v>589</v>
       </c>
@@ -10747,7 +10746,7 @@
       </c>
       <c r="H236" s="12"/>
     </row>
-    <row r="237" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A237" s="12" t="s">
         <v>592</v>
       </c>
@@ -10769,7 +10768,7 @@
       </c>
       <c r="H237" s="12"/>
     </row>
-    <row r="238" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A238" s="12" t="s">
         <v>595</v>
       </c>
@@ -10791,7 +10790,7 @@
       </c>
       <c r="H238" s="12"/>
     </row>
-    <row r="239" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A239" s="12" t="s">
         <v>598</v>
       </c>
@@ -10813,7 +10812,7 @@
       </c>
       <c r="H239" s="12"/>
     </row>
-    <row r="240" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A240" s="12" t="s">
         <v>601</v>
       </c>
@@ -10835,7 +10834,7 @@
       </c>
       <c r="H240" s="12"/>
     </row>
-    <row r="241" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A241" s="12" t="s">
         <v>604</v>
       </c>
@@ -10857,7 +10856,7 @@
       </c>
       <c r="H241" s="12"/>
     </row>
-    <row r="242" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
         <v>607</v>
       </c>
@@ -10879,7 +10878,7 @@
       </c>
       <c r="H242" s="12"/>
     </row>
-    <row r="243" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A243" s="12" t="s">
         <v>610</v>
       </c>
@@ -10901,7 +10900,7 @@
       </c>
       <c r="H243" s="12"/>
     </row>
-    <row r="244" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
         <v>613</v>
       </c>
@@ -10923,7 +10922,7 @@
       </c>
       <c r="H244" s="12"/>
     </row>
-    <row r="245" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A245" s="12" t="s">
         <v>616</v>
       </c>
@@ -10945,7 +10944,7 @@
       </c>
       <c r="H245" s="12"/>
     </row>
-    <row r="246" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
         <v>619</v>
       </c>
@@ -10967,7 +10966,7 @@
       </c>
       <c r="H246" s="12"/>
     </row>
-    <row r="247" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
         <v>622</v>
       </c>
@@ -10989,7 +10988,7 @@
       </c>
       <c r="H247" s="12"/>
     </row>
-    <row r="248" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
         <v>625</v>
       </c>
@@ -11011,7 +11010,7 @@
       </c>
       <c r="H248" s="12"/>
     </row>
-    <row r="249" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A249" s="12" t="s">
         <v>628</v>
       </c>
@@ -11033,7 +11032,7 @@
       </c>
       <c r="H249" s="12"/>
     </row>
-    <row r="250" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
         <v>1189</v>
       </c>
@@ -11055,7 +11054,7 @@
       </c>
       <c r="H250" s="12"/>
     </row>
-    <row r="251" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
         <v>1190</v>
       </c>
@@ -11077,7 +11076,7 @@
       </c>
       <c r="H251" s="12"/>
     </row>
-    <row r="252" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A252" s="12" t="s">
         <v>635</v>
       </c>
@@ -11099,7 +11098,7 @@
       </c>
       <c r="H252" s="12"/>
     </row>
-    <row r="253" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
         <v>638</v>
       </c>
@@ -11121,7 +11120,7 @@
       </c>
       <c r="H253" s="12"/>
     </row>
-    <row r="254" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
         <v>1191</v>
       </c>
@@ -11143,7 +11142,7 @@
       </c>
       <c r="H254" s="12"/>
     </row>
-    <row r="255" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A255" s="12" t="s">
         <v>643</v>
       </c>
@@ -11165,7 +11164,7 @@
       </c>
       <c r="H255" s="12"/>
     </row>
-    <row r="256" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A256" s="12" t="s">
         <v>645</v>
       </c>
@@ -11187,7 +11186,7 @@
       </c>
       <c r="H256" s="12"/>
     </row>
-    <row r="257" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A257" s="12" t="s">
         <v>648</v>
       </c>
@@ -11209,7 +11208,7 @@
       </c>
       <c r="H257" s="12"/>
     </row>
-    <row r="258" spans="1:8" ht="306" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="306" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
         <v>651</v>
       </c>
@@ -11231,7 +11230,7 @@
       </c>
       <c r="H258" s="12"/>
     </row>
-    <row r="259" spans="1:8" ht="323" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
         <v>1192</v>
       </c>
@@ -11253,7 +11252,7 @@
       </c>
       <c r="H259" s="12"/>
     </row>
-    <row r="260" spans="1:8" ht="340" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
         <v>655</v>
       </c>
@@ -11275,7 +11274,7 @@
       </c>
       <c r="H260" s="12"/>
     </row>
-    <row r="261" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
         <v>658</v>
       </c>
@@ -11297,7 +11296,7 @@
       </c>
       <c r="H261" s="12"/>
     </row>
-    <row r="262" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
         <v>661</v>
       </c>
@@ -11319,7 +11318,7 @@
       </c>
       <c r="H262" s="12"/>
     </row>
-    <row r="263" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A263" s="12" t="s">
         <v>663</v>
       </c>
@@ -11341,7 +11340,7 @@
       </c>
       <c r="H263" s="12"/>
     </row>
-    <row r="264" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A264" s="12" t="s">
         <v>1194</v>
       </c>
@@ -11363,7 +11362,7 @@
       </c>
       <c r="H264" s="12"/>
     </row>
-    <row r="265" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
         <v>667</v>
       </c>
@@ -11499,7 +11498,7 @@
       </c>
       <c r="H270" s="10"/>
     </row>
-    <row r="271" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A271" s="12" t="s">
         <v>684</v>
       </c>
@@ -11543,7 +11542,7 @@
       </c>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A273" s="12" t="s">
         <v>690</v>
       </c>
@@ -11565,7 +11564,7 @@
       </c>
       <c r="H273" s="12"/>
     </row>
-    <row r="274" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A274" s="12" t="s">
         <v>693</v>
       </c>
@@ -11587,7 +11586,7 @@
       </c>
       <c r="H274" s="12"/>
     </row>
-    <row r="275" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A275" s="12" t="s">
         <v>696</v>
       </c>
@@ -11609,7 +11608,7 @@
       </c>
       <c r="H275" s="12"/>
     </row>
-    <row r="276" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A276" s="12" t="s">
         <v>1196</v>
       </c>
@@ -11631,7 +11630,7 @@
       </c>
       <c r="H276" s="12"/>
     </row>
-    <row r="277" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A277" s="12" t="s">
         <v>700</v>
       </c>
@@ -11653,7 +11652,7 @@
       </c>
       <c r="H277" s="12"/>
     </row>
-    <row r="278" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A278" s="12" t="s">
         <v>703</v>
       </c>
@@ -11675,7 +11674,7 @@
       </c>
       <c r="H278" s="12"/>
     </row>
-    <row r="279" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
         <v>706</v>
       </c>
@@ -11697,7 +11696,7 @@
       </c>
       <c r="H279" s="12"/>
     </row>
-    <row r="280" spans="1:8" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
         <v>709</v>
       </c>
@@ -11719,7 +11718,7 @@
       </c>
       <c r="H280" s="12"/>
     </row>
-    <row r="281" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" s="12" t="s">
         <v>712</v>
       </c>
@@ -11741,7 +11740,7 @@
       </c>
       <c r="H281" s="12"/>
     </row>
-    <row r="282" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>715</v>
       </c>
@@ -11763,7 +11762,7 @@
       </c>
       <c r="H282" s="12"/>
     </row>
-    <row r="283" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A283" s="12" t="s">
         <v>718</v>
       </c>
@@ -11785,7 +11784,7 @@
       </c>
       <c r="H283" s="12"/>
     </row>
-    <row r="284" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
         <v>1198</v>
       </c>
@@ -11807,7 +11806,7 @@
       </c>
       <c r="H284" s="12"/>
     </row>
-    <row r="285" spans="1:8" ht="356" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="356" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
         <v>723</v>
       </c>
@@ -11829,7 +11828,7 @@
       </c>
       <c r="H285" s="12"/>
     </row>
-    <row r="286" spans="1:8" ht="323" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
         <v>726</v>
       </c>
@@ -11917,7 +11916,7 @@
       </c>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
         <v>737</v>
       </c>
@@ -11939,7 +11938,7 @@
       </c>
       <c r="H290" s="12"/>
     </row>
-    <row r="291" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A291" s="12" t="s">
         <v>739</v>
       </c>
@@ -11961,7 +11960,7 @@
       </c>
       <c r="H291" s="12"/>
     </row>
-    <row r="292" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
         <v>741</v>
       </c>
@@ -11983,7 +11982,7 @@
       </c>
       <c r="H292" s="12"/>
     </row>
-    <row r="293" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
         <v>743</v>
       </c>
@@ -12005,7 +12004,7 @@
       </c>
       <c r="H293" s="12"/>
     </row>
-    <row r="294" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
         <v>745</v>
       </c>
@@ -12027,7 +12026,7 @@
       </c>
       <c r="H294" s="12"/>
     </row>
-    <row r="295" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
         <v>747</v>
       </c>
@@ -12049,7 +12048,7 @@
       </c>
       <c r="H295" s="12"/>
     </row>
-    <row r="296" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
         <v>749</v>
       </c>
@@ -12071,7 +12070,7 @@
       </c>
       <c r="H296" s="12"/>
     </row>
-    <row r="297" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A297" s="12" t="s">
         <v>751</v>
       </c>
@@ -12093,7 +12092,7 @@
       </c>
       <c r="H297" s="12"/>
     </row>
-    <row r="298" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A298" s="12" t="s">
         <v>753</v>
       </c>
@@ -12115,7 +12114,7 @@
       </c>
       <c r="H298" s="12"/>
     </row>
-    <row r="299" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A299" s="12" t="s">
         <v>755</v>
       </c>
@@ -12137,7 +12136,7 @@
       </c>
       <c r="H299" s="12"/>
     </row>
-    <row r="300" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="s">
         <v>757</v>
       </c>
@@ -12159,7 +12158,7 @@
       </c>
       <c r="H300" s="12"/>
     </row>
-    <row r="301" spans="1:8" ht="289" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A301" s="12" t="s">
         <v>759</v>
       </c>
@@ -12181,7 +12180,7 @@
       </c>
       <c r="H301" s="12"/>
     </row>
-    <row r="302" spans="1:8" ht="340" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="s">
         <v>1199</v>
       </c>
@@ -12203,7 +12202,7 @@
       </c>
       <c r="H302" s="12"/>
     </row>
-    <row r="303" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A303" s="12" t="s">
         <v>1201</v>
       </c>
@@ -12225,7 +12224,7 @@
       </c>
       <c r="H303" s="12"/>
     </row>
-    <row r="304" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A304" s="12" t="s">
         <v>1202</v>
       </c>
@@ -12247,7 +12246,7 @@
       </c>
       <c r="H304" s="12"/>
     </row>
-    <row r="305" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A305" s="12" t="s">
         <v>1203</v>
       </c>
@@ -12295,7 +12294,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A307" s="12" t="s">
         <v>771</v>
       </c>
@@ -12317,7 +12316,7 @@
       </c>
       <c r="H307" s="12"/>
     </row>
-    <row r="308" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A308" s="12" t="s">
         <v>774</v>
       </c>
@@ -12339,7 +12338,7 @@
       </c>
       <c r="H308" s="12"/>
     </row>
-    <row r="309" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" s="12" t="s">
         <v>777</v>
       </c>
@@ -12361,7 +12360,7 @@
       </c>
       <c r="H309" s="12"/>
     </row>
-    <row r="310" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" s="12" t="s">
         <v>780</v>
       </c>
@@ -12427,7 +12426,7 @@
       </c>
       <c r="H312" s="10"/>
     </row>
-    <row r="313" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A313" s="12" t="s">
         <v>1204</v>
       </c>
@@ -12449,7 +12448,7 @@
       </c>
       <c r="H313" s="12"/>
     </row>
-    <row r="314" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A314" s="12" t="s">
         <v>1206</v>
       </c>
@@ -12471,7 +12470,7 @@
       </c>
       <c r="H314" s="12"/>
     </row>
-    <row r="315" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A315" s="12" t="s">
         <v>1207</v>
       </c>
@@ -12493,7 +12492,7 @@
       </c>
       <c r="H315" s="12"/>
     </row>
-    <row r="316" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A316" s="12" t="s">
         <v>1208</v>
       </c>
@@ -12515,7 +12514,7 @@
       </c>
       <c r="H316" s="12"/>
     </row>
-    <row r="317" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A317" s="12" t="s">
         <v>1210</v>
       </c>
@@ -12537,7 +12536,7 @@
       </c>
       <c r="H317" s="12"/>
     </row>
-    <row r="318" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
         <v>795</v>
       </c>
@@ -12559,7 +12558,7 @@
       </c>
       <c r="H318" s="12"/>
     </row>
-    <row r="319" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
         <v>798</v>
       </c>
@@ -12581,7 +12580,7 @@
       </c>
       <c r="H319" s="12"/>
     </row>
-    <row r="320" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
         <v>801</v>
       </c>
@@ -12603,7 +12602,7 @@
       </c>
       <c r="H320" s="12"/>
     </row>
-    <row r="321" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
         <v>1212</v>
       </c>
@@ -12625,7 +12624,7 @@
       </c>
       <c r="H321" s="12"/>
     </row>
-    <row r="322" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" s="12" t="s">
         <v>1213</v>
       </c>
@@ -12647,7 +12646,7 @@
       </c>
       <c r="H322" s="12"/>
     </row>
-    <row r="323" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="12" t="s">
         <v>804</v>
       </c>
@@ -12669,7 +12668,7 @@
       </c>
       <c r="H323" s="12"/>
     </row>
-    <row r="324" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
         <v>806</v>
       </c>
@@ -12691,7 +12690,7 @@
       </c>
       <c r="H324" s="12"/>
     </row>
-    <row r="325" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A325" s="12" t="s">
         <v>808</v>
       </c>
@@ -12713,7 +12712,7 @@
       </c>
       <c r="H325" s="12"/>
     </row>
-    <row r="326" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A326" s="12" t="s">
         <v>810</v>
       </c>
@@ -12735,7 +12734,7 @@
       </c>
       <c r="H326" s="12"/>
     </row>
-    <row r="327" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A327" s="12" t="s">
         <v>813</v>
       </c>
@@ -12779,7 +12778,7 @@
       </c>
       <c r="H328" s="10"/>
     </row>
-    <row r="329" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A329" s="12" t="s">
         <v>819</v>
       </c>
@@ -12801,7 +12800,7 @@
       </c>
       <c r="H329" s="12"/>
     </row>
-    <row r="330" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A330" s="12" t="s">
         <v>822</v>
       </c>
@@ -12845,7 +12844,7 @@
       </c>
       <c r="H331" s="10"/>
     </row>
-    <row r="332" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A332" s="12" t="s">
         <v>828</v>
       </c>
@@ -12867,7 +12866,7 @@
       </c>
       <c r="H332" s="12"/>
     </row>
-    <row r="333" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A333" s="12" t="s">
         <v>831</v>
       </c>
@@ -13125,7 +13124,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A344" s="12" t="s">
         <v>1048</v>
       </c>
@@ -13169,7 +13168,7 @@
       </c>
       <c r="H345" s="10"/>
     </row>
-    <row r="346" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A346" s="12" t="s">
         <v>1050</v>
       </c>
@@ -13191,7 +13190,7 @@
       </c>
       <c r="H346" s="12"/>
     </row>
-    <row r="347" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A347" s="12" t="s">
         <v>1051</v>
       </c>
@@ -13213,7 +13212,7 @@
       </c>
       <c r="H347" s="12"/>
     </row>
-    <row r="348" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A348" s="12" t="s">
         <v>1052</v>
       </c>
@@ -13309,7 +13308,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A352" s="12" t="s">
         <v>1056</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A354" s="12" t="s">
         <v>1058</v>
       </c>
@@ -13379,7 +13378,7 @@
       </c>
       <c r="H354" s="12"/>
     </row>
-    <row r="355" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A355" s="12" t="s">
         <v>1059</v>
       </c>
@@ -13489,7 +13488,7 @@
       </c>
       <c r="H359" s="10"/>
     </row>
-    <row r="360" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A360" s="12" t="s">
         <v>1064</v>
       </c>
@@ -13511,7 +13510,7 @@
       </c>
       <c r="H360" s="12"/>
     </row>
-    <row r="361" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A361" s="12" t="s">
         <v>1065</v>
       </c>
@@ -13533,7 +13532,7 @@
       </c>
       <c r="H361" s="12"/>
     </row>
-    <row r="362" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A362" s="12" t="s">
         <v>1066</v>
       </c>
@@ -13555,7 +13554,7 @@
       </c>
       <c r="H362" s="12"/>
     </row>
-    <row r="363" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A363" s="12" t="s">
         <v>1067</v>
       </c>
@@ -13577,7 +13576,7 @@
       </c>
       <c r="H363" s="12"/>
     </row>
-    <row r="364" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A364" s="12" t="s">
         <v>1068</v>
       </c>
@@ -13643,7 +13642,7 @@
       </c>
       <c r="H366" s="10"/>
     </row>
-    <row r="367" spans="1:8" ht="306" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="306" x14ac:dyDescent="0.2">
       <c r="A367" s="12" t="s">
         <v>1071</v>
       </c>
@@ -13665,7 +13664,7 @@
       </c>
       <c r="H367" s="12"/>
     </row>
-    <row r="368" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A368" s="12" t="s">
         <v>1072</v>
       </c>
@@ -13687,7 +13686,7 @@
       </c>
       <c r="H368" s="12"/>
     </row>
-    <row r="369" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A369" s="12" t="s">
         <v>1073</v>
       </c>
@@ -13709,7 +13708,7 @@
       </c>
       <c r="H369" s="12"/>
     </row>
-    <row r="370" spans="1:8" ht="340" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A370" s="12" t="s">
         <v>1074</v>
       </c>
@@ -13731,7 +13730,7 @@
       </c>
       <c r="H370" s="12"/>
     </row>
-    <row r="371" spans="1:8" ht="340" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="340" x14ac:dyDescent="0.2">
       <c r="A371" s="12" t="s">
         <v>1075</v>
       </c>
@@ -13753,7 +13752,7 @@
       </c>
       <c r="H371" s="12"/>
     </row>
-    <row r="372" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A372" s="12" t="s">
         <v>1076</v>
       </c>
@@ -13775,7 +13774,7 @@
       </c>
       <c r="H372" s="12"/>
     </row>
-    <row r="373" spans="1:8" ht="238" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A373" s="12" t="s">
         <v>1077</v>
       </c>
@@ -13797,7 +13796,7 @@
       </c>
       <c r="H373" s="12"/>
     </row>
-    <row r="374" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A374" s="12" t="s">
         <v>1078</v>
       </c>
@@ -13819,7 +13818,7 @@
       </c>
       <c r="H374" s="12"/>
     </row>
-    <row r="375" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A375" s="12" t="s">
         <v>1079</v>
       </c>
@@ -13841,7 +13840,7 @@
       </c>
       <c r="H375" s="12"/>
     </row>
-    <row r="376" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
         <v>1080</v>
       </c>
@@ -13863,7 +13862,7 @@
       </c>
       <c r="H376" s="12"/>
     </row>
-    <row r="377" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
         <v>1081</v>
       </c>
@@ -13885,7 +13884,7 @@
       </c>
       <c r="H377" s="12"/>
     </row>
-    <row r="378" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
         <v>1082</v>
       </c>
@@ -13907,7 +13906,7 @@
       </c>
       <c r="H378" s="12"/>
     </row>
-    <row r="379" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
         <v>1083</v>
       </c>
@@ -13929,7 +13928,7 @@
       </c>
       <c r="H379" s="12"/>
     </row>
-    <row r="380" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
         <v>1084</v>
       </c>
@@ -13952,13 +13951,7 @@
       <c r="H380" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H380" xr:uid="{8AD5B64F-5468-C948-9642-2027F3B4AFF1}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H380" xr:uid="{8AD5B64F-5468-C948-9642-2027F3B4AFF1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RHEL8 STIG UBI8 Applicability Review.xlsx
+++ b/RHEL8 STIG UBI8 Applicability Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rxavier/Documents/SD/inspec_profiles/redhat-enterprise-linux-8-stig-baseline_prs/redhat-enterprise-linux-8-stig-baseline_SD-1742/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2D472E2-7546-F74A-A470-CC082CEF4C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{742F4CC9-F830-E244-AB3F-8B7BC3018D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -5258,7 +5258,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315A9E8-EE36-9848-981E-DB483E612F79}">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD5B64F-5468-C948-9642-2027F3B4AFF1}">
   <dimension ref="A1:H380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="F384" sqref="F384"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
